--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Auer\Local\Code\LEGO_internal\examples\001_Base_Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1B947-DE00-4997-B4F4-EA12BE3D8C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F82286A-8CE1-4245-8493-C558FCB1E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-17544" windowWidth="30936" windowHeight="16776" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power VRES" sheetId="107" r:id="rId1"/>
@@ -874,33 +874,35 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.3984375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" style="8" customWidth="1"/>
-    <col min="11" max="14" width="13.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="8" customWidth="1"/>
+    <col min="11" max="14" width="13.42578125" style="7" customWidth="1"/>
     <col min="15" max="15" width="16" style="7" customWidth="1"/>
     <col min="16" max="17" width="14" style="7" customWidth="1"/>
     <col min="18" max="18" width="30" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.3984375" style="7"/>
+    <col min="21" max="21" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -915,7 +917,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
@@ -968,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -989,7 +991,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1010,7 +1012,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="E6" s="18" t="s">
         <v>12</v>
@@ -1053,7 +1055,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1065,9 @@
       <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="21">
+        <v>23</v>
+      </c>
       <c r="F7" s="21">
         <v>100</v>
       </c>
@@ -1106,7 +1110,7 @@
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1120,9 @@
       <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
       <c r="F8" s="21">
         <v>100</v>
       </c>
@@ -1156,7 +1162,7 @@
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1172,9 @@
       <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21">
+        <v>28</v>
+      </c>
       <c r="F9" s="21">
         <v>100</v>
       </c>
@@ -1206,7 +1214,7 @@
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1224,9 @@
       <c r="D10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21">
+        <v>35</v>
+      </c>
       <c r="F10" s="21">
         <v>100</v>
       </c>
@@ -1256,7 +1266,7 @@
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I11" s="8"/>
       <c r="J11" s="7"/>
       <c r="Q11" s="8"/>
@@ -1266,73 +1276,73 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J12" s="7"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J13" s="7"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J14" s="7"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J15" s="7"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J16" s="7"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J17" s="7"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J18" s="7"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J19" s="7"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J20" s="7"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
@@ -1344,12 +1354,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1499,15 +1506,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1531,17 +1549,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F82286A-8CE1-4245-8493-C558FCB1E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C8629-756D-4052-9C55-EE30F106EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power VRES" sheetId="107" r:id="rId1"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="21">
         <v>100</v>
@@ -1354,12 +1354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1505,6 +1499,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1515,22 +1515,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1548,6 +1532,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>

--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C8629-756D-4052-9C55-EE30F106EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F924E0-E238-493C-BAD9-B448152575E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34572" yWindow="-17508" windowWidth="30936" windowHeight="16776" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power VRES" sheetId="107" r:id="rId1"/>
@@ -874,9 +874,7 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1072,7 +1070,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="21">
         <v>290</v>
@@ -1127,7 +1125,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="21">
         <v>290</v>
@@ -1179,7 +1177,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="21">
         <v>300</v>
@@ -1231,7 +1229,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="21">
         <v>300</v>
@@ -1500,18 +1498,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,25 +1531,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F924E0-E238-493C-BAD9-B448152575E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF60F9-088C-4B55-93CF-E92866AC4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34572" yWindow="-17508" windowWidth="30936" windowHeight="16776" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power VRES" sheetId="107" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="21">
         <v>290</v>
@@ -1352,6 +1352,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1497,22 +1512,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1528,28 +1552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\InOutModule\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF60F9-088C-4B55-93CF-E92866AC4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23CBA6-4423-44EF-B6FA-73946D00B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Power VRES" sheetId="107" r:id="rId1"/>
+    <sheet name="scenario" sheetId="107" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Power VRES'!$B$3:$N$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario!$C$3:$O$11</definedName>
     <definedName name="businfo">#REF!</definedName>
     <definedName name="demand">#REF!</definedName>
     <definedName name="dsmdelaytime">#REF!</definedName>
@@ -34,7 +34,7 @@
     <definedName name="inflows">#REF!</definedName>
     <definedName name="network">#REF!</definedName>
     <definedName name="param">#REF!</definedName>
-    <definedName name="renewable">'Power VRES'!$B$2:$N$643</definedName>
+    <definedName name="renewable">scenario!$C$2:$O$643</definedName>
     <definedName name="resprofile">#REF!</definedName>
     <definedName name="runofriver">#REF!</definedName>
     <definedName name="sCodeName">#REF!</definedName>
@@ -66,66 +66,55 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Felix Auer</author>
-    <author>Simulation</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{EE0E930B-3F99-4A34-B9C4-A116BA08F0DC}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BD5C579D-D814-43DB-B508-36D5E2F6B95A}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Excludes rows where this column is filled with something (e.g., with 'X' or '*')</t>
+          <t>If a line has a value in this column, it is not read in (i.e., does not exist).</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{43A219BB-3D66-4628-88E3-17E67918D386}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{ABCEA4D3-E5A3-47EA-8166-D1574915A256}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">g
-</t>
+          <t>Readable Name</t>
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{4ABE30CA-98EF-4BFC-9EDB-E63FFC7BF802}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{30CAB3A9-A707-42FF-9000-0796AF651A4B}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t>tec</t>
+          <t>Value specifier in DB</t>
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{A79BAC55-9334-4294-B21E-68A42A979D77}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{6BF8F619-B8B2-4691-8040-448829830772}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>i</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{8282CDAF-C058-40AE-85A3-B2A09A86F94A}">
-      <text>
-        <r>
-          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -135,16 +124,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{B1F97D92-1E75-4E6E-9C95-8D3039C70FFC}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{436952F3-B42F-4C10-88AB-30DB1F5EB15E}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Source/ Typical Values</t>
+          <t>Details on database behavior</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{29AA592C-1D85-4DAF-BB5E-49F169ECE601}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit or valid values</t>
         </r>
       </text>
     </comment>
@@ -153,14 +157,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>[MW]</t>
   </si>
   <si>
-    <t>[p.u.]</t>
-  </si>
-  <si>
     <t>[€/MWh]</t>
   </si>
   <si>
@@ -215,46 +216,178 @@
     <t>Wind2</t>
   </si>
   <si>
+    <t>[€/MW/year]</t>
+  </si>
+  <si>
+    <t>Node_5</t>
+  </si>
+  <si>
+    <t>Node_6</t>
+  </si>
+  <si>
+    <t>Node_8</t>
+  </si>
+  <si>
+    <t>Power - Variable Renewable Energy Sources</t>
+  </si>
+  <si>
+    <t>YearCom</t>
+  </si>
+  <si>
+    <t>YearDecom</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Excl.</t>
+  </si>
+  <si>
+    <t>Format:</t>
+  </si>
+  <si>
+    <t>Database ID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ID within database</t>
+  </si>
+  <si>
+    <t>Filled automatically by database</t>
+  </si>
+  <si>
+    <t>[db-key]</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>tec</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>[g]</t>
+  </si>
+  <si>
+    <t>[tec]</t>
+  </si>
+  <si>
+    <t>[Node]</t>
+  </si>
+  <si>
+    <t>[Year]</t>
+  </si>
+  <si>
+    <t>Data Package</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>dataPackage</t>
+  </si>
+  <si>
+    <t>dataSource</t>
+  </si>
+  <si>
+    <t>Where the data for the entry comes from</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[DataPackage]</t>
+  </si>
+  <si>
+    <t>[DataSource]</t>
+  </si>
+  <si>
+    <t>TestPackage1</t>
+  </si>
+  <si>
+    <t>TestSource1</t>
+  </si>
+  <si>
+    <t>[%, 0-1]</t>
+  </si>
+  <si>
+    <t>Name of generator</t>
+  </si>
+  <si>
+    <t>Corresponding technology</t>
+  </si>
+  <si>
+    <t>Node where generator is connected</t>
+  </si>
+  <si>
+    <t>Number of existing VRE units</t>
+  </si>
+  <si>
+    <t>Maximum active power output of VRE unit</t>
+  </si>
+  <si>
+    <t>Whether the model can invest in additional units (1) or not (0)</t>
+  </si>
+  <si>
+    <t>Maximum number of VRE units that can be invested in</t>
+  </si>
+  <si>
+    <t>Annualized investment cost per MW</t>
+  </si>
+  <si>
+    <t>Operation and maintenance cost of VRE unit</t>
+  </si>
+  <si>
+    <t>Firm capacity coefficient of VRE unit</t>
+  </si>
+  <si>
+    <t>Maximum reactive power output of VRE unit</t>
+  </si>
+  <si>
+    <t>Minimum reactive power output of VRE unit</t>
+  </si>
+  <si>
+    <t>Inertia constant H of VRE unit</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Scenario-dependent</t>
+  </si>
+  <si>
+    <t>Year where it is commissioned (1.1.xxxx)</t>
+  </si>
+  <si>
+    <t>Year where it is decommissioned (31.12.xxxx)</t>
+  </si>
+  <si>
+    <t>v0.0.3</t>
+  </si>
+  <si>
     <t>Solar2</t>
-  </si>
-  <si>
-    <t>[€/MW/year]</t>
-  </si>
-  <si>
-    <t>Node_5</t>
-  </si>
-  <si>
-    <t>Node_6</t>
-  </si>
-  <si>
-    <t>Node_8</t>
-  </si>
-  <si>
-    <t>Power - Variable Renewable Energy Sources</t>
-  </si>
-  <si>
-    <t>PPName</t>
-  </si>
-  <si>
-    <t>YearCom</t>
-  </si>
-  <si>
-    <t>YearDecom</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>Wind1</t>
-  </si>
-  <si>
-    <t>Solar1</t>
-  </si>
-  <si>
-    <t>Excl.</t>
   </si>
 </sst>
 </file>
@@ -266,7 +399,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -307,76 +440,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3366FF"/>
       <name val="Aptos"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +545,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -449,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -460,94 +593,100 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
     <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
@@ -874,475 +1013,668 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="8" customWidth="1"/>
-    <col min="11" max="14" width="13.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16" style="7" customWidth="1"/>
-    <col min="16" max="17" width="14" style="7" customWidth="1"/>
-    <col min="18" max="18" width="30" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
+    <col min="12" max="15" width="13.42578125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="17.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="R3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="C6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="25">
+        <v>23</v>
+      </c>
+      <c r="G8" s="26">
+        <v>100</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>290</v>
+      </c>
+      <c r="J8" s="28">
+        <v>72641.801500000001</v>
+      </c>
+      <c r="K8" s="28">
+        <v>2</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <v>2010</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="24">
+        <v>47.491300000000003</v>
+      </c>
+      <c r="S8" s="24">
+        <v>12.818199999999999</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>100</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <v>290</v>
+      </c>
+      <c r="J9" s="28">
+        <v>80000</v>
+      </c>
+      <c r="K9" s="28">
+        <v>5</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26">
+        <v>2</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="24">
+        <v>46.77</v>
+      </c>
+      <c r="S9" s="24">
+        <v>13.746700000000001</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25">
         <v>29</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="E6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="G10" s="26">
+        <v>100</v>
+      </c>
+      <c r="H10" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="I10" s="26">
+        <v>300</v>
+      </c>
+      <c r="J10" s="28">
+        <v>84467.2111</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="24">
+        <v>46.77</v>
+      </c>
+      <c r="S10" s="24">
+        <v>13.746700000000001</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="21">
-        <v>23</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="F11" s="25">
+        <v>35</v>
+      </c>
+      <c r="G11" s="26">
         <v>100</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H11" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="21">
-        <v>290</v>
-      </c>
-      <c r="I7" s="23">
-        <v>72641.801500000001</v>
-      </c>
-      <c r="J7" s="23">
-        <v>2</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
+      <c r="I11" s="26">
+        <v>300</v>
+      </c>
+      <c r="J11" s="28">
+        <v>84967.2111</v>
+      </c>
+      <c r="K11" s="28">
         <v>0</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="5">
-        <v>2010</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="S7" s="6">
-        <v>12.818199999999999</v>
-      </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="L11" s="30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="21">
-        <v>100</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="21">
-        <v>290</v>
-      </c>
-      <c r="I8" s="23">
-        <v>80000</v>
-      </c>
-      <c r="J8" s="23">
-        <v>5</v>
-      </c>
-      <c r="K8" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21">
-        <v>2</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9">
-        <v>46.77</v>
-      </c>
-      <c r="S8" s="9">
-        <v>13.746700000000001</v>
-      </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="21">
-        <v>29</v>
-      </c>
-      <c r="F9" s="21">
-        <v>100</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>300</v>
-      </c>
-      <c r="I9" s="23">
-        <v>84467.2111</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9">
-        <v>46.77</v>
-      </c>
-      <c r="S9" s="9">
-        <v>13.746700000000001</v>
-      </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21">
-        <v>35</v>
-      </c>
-      <c r="F10" s="21">
-        <v>100</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>300</v>
-      </c>
-      <c r="I10" s="23">
-        <v>84967.2111</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="24">
         <v>46.561055000000003</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S11" s="24">
         <v>14.479570000000001</v>
       </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="T11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J13" s="7"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="K13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J14" s="7"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J15" s="7"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="K15" s="2"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J16" s="7"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J17" s="7"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J18" s="7"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J19" s="7"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J20" s="7"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1358,15 +1690,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1512,6 +1835,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
@@ -1529,14 +1861,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1552,4 +1876,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\InOutModule\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23CBA6-4423-44EF-B6FA-73946D00B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07FAEAC-8205-4056-A2D2-7F61C3C1417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="107" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>[MW]</t>
   </si>
@@ -384,10 +384,13 @@
     <t>Year where it is decommissioned (31.12.xxxx)</t>
   </si>
   <si>
-    <t>v0.0.3</t>
-  </si>
-  <si>
     <t>Solar2</t>
+  </si>
+  <si>
+    <t>[°]</t>
+  </si>
+  <si>
+    <t>v0.0.3r</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1368,8 +1371,12 @@
       <c r="Q7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="R7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="T7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1554,7 +1561,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>5</v>
@@ -1684,12 +1691,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1835,6 +1836,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1845,22 +1852,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1878,6 +1869,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>

--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07FAEAC-8205-4056-A2D2-7F61C3C1417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6EBA0-E8A9-4522-8591-6D73C77EE380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenario" sheetId="107" r:id="rId1"/>
+    <sheet name="ScenarioA" sheetId="107" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario!$C$3:$O$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ScenarioA!$C$3:$O$11</definedName>
     <definedName name="businfo">#REF!</definedName>
     <definedName name="demand">#REF!</definedName>
     <definedName name="dsmdelaytime">#REF!</definedName>
@@ -34,7 +34,7 @@
     <definedName name="inflows">#REF!</definedName>
     <definedName name="network">#REF!</definedName>
     <definedName name="param">#REF!</definedName>
-    <definedName name="renewable">scenario!$C$2:$O$643</definedName>
+    <definedName name="renewable">ScenarioA!$C$2:$O$643</definedName>
     <definedName name="resprofile">#REF!</definedName>
     <definedName name="runofriver">#REF!</definedName>
     <definedName name="sCodeName">#REF!</definedName>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>[MW]</t>
   </si>
@@ -240,9 +240,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>Excl.</t>
   </si>
   <si>
@@ -390,7 +387,19 @@
     <t>[°]</t>
   </si>
   <si>
-    <t>v0.0.3r</t>
+    <t>v0.0.4r</t>
+  </si>
+  <si>
+    <t>excl</t>
+  </si>
+  <si>
+    <t>Commission Year</t>
+  </si>
+  <si>
+    <t>Decommission Year</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1058,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1067,19 +1076,19 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>10</v>
@@ -1112,39 +1121,39 @@
         <v>12</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="T3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>10</v>
@@ -1186,154 +1195,154 @@
         <v>26</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="T4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="U5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -1354,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>16</v>
@@ -1366,22 +1375,22 @@
         <v>13</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
@@ -1436,10 +1445,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="T8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -1492,10 +1501,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="T9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="13"/>
@@ -1548,10 +1557,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="T10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="13"/>
@@ -1561,7 +1570,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>5</v>
@@ -1604,10 +1613,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="T11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="13"/>
@@ -1691,6 +1700,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1836,12 +1851,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1852,6 +1861,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1869,22 +1894,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>

--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6EBA0-E8A9-4522-8591-6D73C77EE380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836830C2-ECFA-4B39-A84E-33964426A8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35040" yWindow="7665" windowWidth="28800" windowHeight="15030" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="107" r:id="rId1"/>
@@ -697,11 +697,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
-    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="5" xr:uid="{5DF4A97E-8529-4A9B-8CDD-1ED3E5DC1118}"/>
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
@@ -1029,34 +1029,34 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12" max="15" width="13.42578125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="17.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="13.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="3" customWidth="1"/>
+    <col min="12" max="15" width="13.3984375" style="2" customWidth="1"/>
+    <col min="16" max="17" width="17.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>77</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="86" x14ac:dyDescent="0.5">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -1267,7 +1267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="43" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="20" t="s">
         <v>32</v>
@@ -1330,7 +1330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
         <v>33</v>
@@ -1396,7 +1396,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="12" t="s">
@@ -1429,8 +1429,12 @@
       <c r="L8" s="29">
         <v>0.25</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
       <c r="O8" s="26">
         <v>0</v>
       </c>
@@ -1454,7 +1458,7 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
@@ -1487,8 +1491,12 @@
       <c r="L9" s="29">
         <v>0.25</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
       <c r="O9" s="26">
         <v>2</v>
       </c>
@@ -1510,7 +1518,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="12" t="s">
@@ -1543,8 +1551,12 @@
       <c r="L10" s="30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
       <c r="O10" s="26">
         <v>0</v>
       </c>
@@ -1566,7 +1578,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="12" t="s">
@@ -1599,8 +1611,12 @@
       <c r="L11" s="30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
       <c r="O11" s="26">
         <v>0</v>
       </c>
@@ -1622,73 +1638,73 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.5">
       <c r="K12" s="2"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.5">
       <c r="K13" s="2"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.5">
       <c r="K14" s="2"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.5">
       <c r="K15" s="2"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
       <c r="K16" s="2"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.5">
       <c r="K17" s="2"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.5">
       <c r="K18" s="2"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.5">
       <c r="K19" s="2"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.5">
       <c r="K20" s="2"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.5">
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.5">
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.5">
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.5">
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.5">
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:19" x14ac:dyDescent="0.5">
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
@@ -1700,9 +1716,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1852,26 +1871,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1895,9 +1903,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836830C2-ECFA-4B39-A84E-33964426A8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D2A6B6-BCF6-41BE-B0B3-CBCB4952486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35040" yWindow="7665" windowWidth="28800" windowHeight="15030" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74860" yWindow="5830" windowWidth="28800" windowHeight="15240" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="107" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1430,10 +1430,10 @@
         <v>0.25</v>
       </c>
       <c r="M8" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="26">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O8" s="26">
         <v>0</v>
@@ -1725,6 +1725,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1870,12 +1876,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -1885,6 +1885,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1900,20 +1916,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -597,7 +597,7 @@
     <col width="24.5709375" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/example/Power_VRES.xlsx
+++ b/data/example/Power_VRES.xlsx
@@ -41,13 +41,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -64,38 +64,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -574,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -589,12 +589,12 @@
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
     <col width="15.7109375" customWidth="1" min="14" max="14"/>
     <col width="15.7109375" customWidth="1" min="15" max="15"/>
-    <col width="20.2109375" customWidth="1" min="16" max="16"/>
-    <col width="20.2109375" customWidth="1" min="17" max="17"/>
+    <col width="20.140625" customWidth="1" min="16" max="16"/>
+    <col width="20.140625" customWidth="1" min="17" max="17"/>
     <col width="15.7109375" customWidth="1" min="18" max="18"/>
     <col width="15.7109375" customWidth="1" min="19" max="19"/>
-    <col width="24.5709375" customWidth="1" min="20" max="20"/>
-    <col width="24.5709375" customWidth="1" min="21" max="21"/>
+    <col width="24.5703125" customWidth="1" min="20" max="20"/>
+    <col width="24.5703125" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -1522,6 +1522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>